--- a/biology/Médecine/Syndrome_de_Mohr-Tranebjaerg/Syndrome_de_Mohr-Tranebjaerg.xlsx
+++ b/biology/Médecine/Syndrome_de_Mohr-Tranebjaerg/Syndrome_de_Mohr-Tranebjaerg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le syndrome de Mohr-Tranebjaerg ou syndrome surdité dystonie neuropathie optique survient chez des individus masculins et associe une surdité de perception pré ou post linguale, une dystonie progressive ou une ataxie apparaissant vers l'âge de 10 ans, une diminution de la vision vers l'âge de 20 ans par atrophie du nerf optique et une démence commençant vers 40 ans.
@@ -515,9 +527,11 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(en) Lisbeth Tranebjærg, Deafness-Dystonia-Optic Neuronopathy Syndrome In GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2005 [1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(en) Lisbeth Tranebjærg, Deafness-Dystonia-Optic Neuronopathy Syndrome In GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2005 
  Portail de la médecine                     </t>
         </is>
       </c>
